--- a/output/filtered_table.xlsx
+++ b/output/filtered_table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="filtered_intermediate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="filtered_intermediate" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA53"/>
+  <dimension ref="A1:AW49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,140 +556,120 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>乗用車</t>
+          <t>その他の自動車</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>その他の自動車</t>
+          <t>自動車部品・同附属品</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>自動車部品・同附属品</t>
+          <t>その他の輸送機械</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>その他の輸送機械</t>
+          <t>その他の製造工業製品</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>その他の製造工業製品</t>
+          <t>建設補修</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>電力</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>建設補修</t>
+          <t>ガス・熱供給</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>公共事業</t>
+          <t>水道</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>その他の土木建設</t>
+          <t>廃棄物処理</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>電力</t>
+          <t>商業</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>ガス・熱供給</t>
+          <t>金融・保険・不動産</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>水道</t>
+          <t>運輸・郵便</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>廃棄物処理</t>
+          <t>通信・放送</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>商業</t>
+          <t>情報サービス</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>金融・保険・不動産</t>
+          <t>その他の情報通信</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>運輸・郵便</t>
+          <t>公務</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>通信・放送</t>
+          <t>教育・研究</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>情報サービス</t>
+          <t>医療・福祉</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>その他の情報通信</t>
+          <t>他に分類されない会員制団体</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>公務</t>
+          <t>物品賃貸サービス</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>教育・研究</t>
+          <t>広告</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>医療・福祉</t>
+          <t>その他の対事業所サービス</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>他に分類されない会員制団体</t>
+          <t>対個人サービス</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>物品賃貸サービス</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>広告</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>その他の対事業所サービス</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>対個人サービス</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>その他</t>
         </is>
@@ -705,10 +685,10 @@
         <v>1560085</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>7237003</v>
@@ -741,10 +721,10 @@
         <v>859</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -783,78 +763,66 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>54636</v>
       </c>
       <c r="AD2" t="n">
-        <v>54636</v>
+        <v>564</v>
       </c>
       <c r="AE2" t="n">
-        <v>19159</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>33492</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>10176</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>10939</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>10939</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>958</v>
+        <v>1877</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>98337</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>197412</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>9393</v>
       </c>
       <c r="AS2" t="n">
-        <v>1877</v>
+        <v>793</v>
       </c>
       <c r="AT2" t="n">
-        <v>98337</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>197412</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>9393</v>
+        <v>847398</v>
       </c>
       <c r="AW2" t="n">
-        <v>793</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>68</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>847398</v>
-      </c>
-      <c r="BA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -865,10 +833,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -880,10 +848,10 @@
         <v>550</v>
       </c>
       <c r="G3" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>34745</v>
@@ -916,108 +884,96 @@
         <v>373</v>
       </c>
       <c r="S3" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>1629</v>
       </c>
       <c r="V3" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>2824</v>
       </c>
       <c r="AB3" t="n">
-        <v>2824</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>4043985</v>
       </c>
       <c r="AF3" t="n">
-        <v>5</v>
+        <v>1110957</v>
       </c>
       <c r="AG3" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>4043985</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1110957</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1593</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="AR3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="AT3" t="n">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>186</v>
+        <v>529</v>
       </c>
       <c r="AW3" t="n">
-        <v>413</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>529</v>
-      </c>
-      <c r="BA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1040,7 +996,7 @@
         <v>233</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1109,22 +1065,22 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>2271</v>
       </c>
       <c r="AD4" t="n">
-        <v>2271</v>
+        <v>2640</v>
       </c>
       <c r="AE4" t="n">
-        <v>54892</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2640</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>186269</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>96129</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -1145,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -1157,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
@@ -1169,18 +1125,6 @@
         <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
         <v>1052</v>
       </c>
     </row>
@@ -1221,7 +1165,7 @@
         <v>189755</v>
       </c>
       <c r="L5" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>230</v>
@@ -1230,7 +1174,7 @@
         <v>2405</v>
       </c>
       <c r="O5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1272,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>28251</v>
       </c>
       <c r="AD5" t="n">
-        <v>28251</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1284,66 +1228,54 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1293</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>12621</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>3902</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>12621</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>3902</v>
+        <v>15108</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>245118</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>632766</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>6553</v>
       </c>
       <c r="AS5" t="n">
-        <v>15108</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>245118</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>632766</v>
+        <v>382</v>
       </c>
       <c r="AV5" t="n">
-        <v>6553</v>
+        <v>5406330</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>382</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>5406330</v>
-      </c>
-      <c r="BA5" t="n">
         <v>14689</v>
       </c>
     </row>
@@ -1360,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1091</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>192446</v>
@@ -1378,37 +1310,37 @@
         <v>44752</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4801</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>50309</v>
       </c>
       <c r="N6" t="n">
-        <v>4614</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>3122</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2860</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>12050</v>
       </c>
       <c r="T6" t="n">
-        <v>1279</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>11103</v>
@@ -1420,93 +1352,81 @@
         <v>5114</v>
       </c>
       <c r="X6" t="n">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>13161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>242</v>
+        <v>15798</v>
       </c>
       <c r="AB6" t="n">
-        <v>15798</v>
+        <v>8002</v>
       </c>
       <c r="AC6" t="n">
-        <v>8002</v>
+        <v>18805</v>
       </c>
       <c r="AD6" t="n">
-        <v>18805</v>
+        <v>31490</v>
       </c>
       <c r="AE6" t="n">
-        <v>11911</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>31490</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1803</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>25736</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>462</v>
+        <v>20137</v>
       </c>
       <c r="AL6" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>25736</v>
+        <v>7259</v>
       </c>
       <c r="AN6" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>20137</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7259</v>
+        <v>8001</v>
       </c>
       <c r="AR6" t="n">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>3166</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>8001</v>
+        <v>16007</v>
       </c>
       <c r="AV6" t="n">
-        <v>502</v>
+        <v>20564</v>
       </c>
       <c r="AW6" t="n">
-        <v>1495</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>16007</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>20564</v>
-      </c>
-      <c r="BA6" t="n">
         <v>27062</v>
       </c>
     </row>
@@ -1520,58 +1440,58 @@
         <v>52914</v>
       </c>
       <c r="C7" t="n">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>33861</v>
       </c>
       <c r="F7" t="n">
-        <v>2302</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>28914</v>
       </c>
       <c r="H7" t="n">
-        <v>6543</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9021</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8244</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>13538</v>
       </c>
       <c r="L7" t="n">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>10331</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>14531</v>
       </c>
       <c r="O7" t="n">
-        <v>6661</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3482</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10273</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>9350</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>10101</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4957</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>33448</v>
@@ -1580,97 +1500,85 @@
         <v>13736</v>
       </c>
       <c r="W7" t="n">
-        <v>9771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>4154</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>7338</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>31550</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>2486</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>10962</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>4411</v>
+        <v>23877</v>
       </c>
       <c r="AD7" t="n">
-        <v>23877</v>
+        <v>15539</v>
       </c>
       <c r="AE7" t="n">
-        <v>111643</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>15539</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>22205</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>14434</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1625</v>
+        <v>314116</v>
       </c>
       <c r="AJ7" t="n">
-        <v>790</v>
+        <v>45609</v>
       </c>
       <c r="AK7" t="n">
-        <v>3791</v>
+        <v>43035</v>
       </c>
       <c r="AL7" t="n">
-        <v>8118</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>314116</v>
+        <v>14544</v>
       </c>
       <c r="AN7" t="n">
-        <v>45609</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>43035</v>
+        <v>148702</v>
       </c>
       <c r="AP7" t="n">
-        <v>8449</v>
+        <v>19278</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14544</v>
+        <v>212213</v>
       </c>
       <c r="AR7" t="n">
-        <v>11117</v>
+        <v>84828</v>
       </c>
       <c r="AS7" t="n">
-        <v>148702</v>
+        <v>30335</v>
       </c>
       <c r="AT7" t="n">
-        <v>19278</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>212213</v>
+        <v>89332</v>
       </c>
       <c r="AV7" t="n">
-        <v>84828</v>
+        <v>170882</v>
       </c>
       <c r="AW7" t="n">
-        <v>30335</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>1801</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>89332</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>170882</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>10225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1683,19 +1591,19 @@
         <v>29657</v>
       </c>
       <c r="C8" t="n">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>33009</v>
       </c>
       <c r="F8" t="n">
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1823</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>653790</v>
@@ -1704,136 +1612,124 @@
         <v>247889</v>
       </c>
       <c r="J8" t="n">
-        <v>6445</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>20159</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>15343</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>29637</v>
       </c>
       <c r="O8" t="n">
-        <v>4825</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>10944</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>13230</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4642</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>8156</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>9850</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>14904</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>7127</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>3753</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>5176</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>12581</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>4274</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>2838</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>12545</v>
+        <v>29589</v>
       </c>
       <c r="AC8" t="n">
-        <v>29589</v>
+        <v>112598</v>
       </c>
       <c r="AD8" t="n">
-        <v>112598</v>
+        <v>416485</v>
       </c>
       <c r="AE8" t="n">
-        <v>2010151</v>
+        <v>81308</v>
       </c>
       <c r="AF8" t="n">
-        <v>416485</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>25710</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>34151</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>81308</v>
+        <v>159230</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1328</v>
+        <v>112543</v>
       </c>
       <c r="AK8" t="n">
-        <v>15801</v>
+        <v>86038</v>
       </c>
       <c r="AL8" t="n">
-        <v>14090</v>
+        <v>53040</v>
       </c>
       <c r="AM8" t="n">
-        <v>159230</v>
+        <v>67157</v>
       </c>
       <c r="AN8" t="n">
-        <v>112543</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>86038</v>
+        <v>41112</v>
       </c>
       <c r="AP8" t="n">
-        <v>53040</v>
+        <v>115221</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67157</v>
+        <v>189965</v>
       </c>
       <c r="AR8" t="n">
-        <v>25713</v>
+        <v>55011</v>
       </c>
       <c r="AS8" t="n">
-        <v>41112</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>115221</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>189965</v>
+        <v>99141</v>
       </c>
       <c r="AV8" t="n">
-        <v>55011</v>
+        <v>142571</v>
       </c>
       <c r="AW8" t="n">
-        <v>14894</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>3518</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>99141</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>142571</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>1498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1855,10 +1751,10 @@
         <v>603446</v>
       </c>
       <c r="F9" t="n">
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>14346</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>69824</v>
@@ -1867,13 +1763,13 @@
         <v>2294807</v>
       </c>
       <c r="J9" t="n">
-        <v>14591</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>342928</v>
       </c>
       <c r="L9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>87991</v>
@@ -1882,120 +1778,108 @@
         <v>85019</v>
       </c>
       <c r="O9" t="n">
-        <v>2546</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6722</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>29145</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12077</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9589</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>25509</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>65305</v>
       </c>
       <c r="V9" t="n">
-        <v>48336</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>19351</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>27423</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>16449</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>844</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>19581</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1200</v>
+        <v>564348</v>
       </c>
       <c r="AD9" t="n">
-        <v>564348</v>
+        <v>50107</v>
       </c>
       <c r="AE9" t="n">
-        <v>86890</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>50107</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>530717</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>69627</v>
       </c>
       <c r="AK9" t="n">
-        <v>222</v>
+        <v>145458</v>
       </c>
       <c r="AL9" t="n">
-        <v>4693</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>530717</v>
+        <v>118944</v>
       </c>
       <c r="AN9" t="n">
-        <v>69627</v>
+        <v>281357</v>
       </c>
       <c r="AO9" t="n">
-        <v>145458</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>7923</v>
+        <v>155757</v>
       </c>
       <c r="AQ9" t="n">
-        <v>118944</v>
+        <v>183875</v>
       </c>
       <c r="AR9" t="n">
-        <v>281357</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>14024</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>155757</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>183875</v>
+        <v>132223</v>
       </c>
       <c r="AV9" t="n">
-        <v>15543</v>
+        <v>87870</v>
       </c>
       <c r="AW9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>4056</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>132223</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>87870</v>
-      </c>
-      <c r="BA9" t="n">
         <v>614829</v>
       </c>
     </row>
@@ -2012,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>291006</v>
@@ -2021,10 +1905,10 @@
         <v>29894</v>
       </c>
       <c r="G10" t="n">
-        <v>2593</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8082</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>130183</v>
@@ -2036,7 +1920,7 @@
         <v>3560761</v>
       </c>
       <c r="L10" t="n">
-        <v>4058</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>842003</v>
@@ -2057,16 +1941,16 @@
         <v>20377</v>
       </c>
       <c r="S10" t="n">
-        <v>10883</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>9820</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>110059</v>
       </c>
       <c r="V10" t="n">
-        <v>15003</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>24065</v>
@@ -2075,91 +1959,79 @@
         <v>47755</v>
       </c>
       <c r="Y10" t="n">
-        <v>16411</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>2481</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>10667</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>9283</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>19827</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>5996</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>6015</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>14134</v>
+        <v>37399</v>
       </c>
       <c r="AH10" t="n">
-        <v>8718</v>
+        <v>39100</v>
       </c>
       <c r="AI10" t="n">
-        <v>1978</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>37399</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>39100</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>9138</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>184859</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>65721</v>
       </c>
       <c r="AR10" t="n">
-        <v>2614</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>184859</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>65721</v>
+        <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>28197</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>1573</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>8701</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>28197</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>10657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2172,10 +2044,10 @@
         <v>355932</v>
       </c>
       <c r="C11" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>10704</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>127059</v>
@@ -2199,7 +2071,7 @@
         <v>1550635</v>
       </c>
       <c r="L11" t="n">
-        <v>27994</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1425225</v>
@@ -2208,19 +2080,19 @@
         <v>72142</v>
       </c>
       <c r="O11" t="n">
-        <v>20380</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>30845</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>78743</v>
       </c>
       <c r="R11" t="n">
-        <v>22582</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>85137</v>
@@ -2229,100 +2101,88 @@
         <v>83108</v>
       </c>
       <c r="V11" t="n">
-        <v>57557</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>20338</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>35336</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>33991</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>86668</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>40420</v>
+        <v>379356</v>
       </c>
       <c r="AB11" t="n">
-        <v>379356</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>60153</v>
+        <v>302640</v>
       </c>
       <c r="AD11" t="n">
-        <v>302640</v>
+        <v>85695</v>
       </c>
       <c r="AE11" t="n">
-        <v>179943</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>85695</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>25184</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>16712</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>5173</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15593</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>7238</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>45950</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1237</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>3523</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>12030</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1636</v>
+        <v>151899</v>
       </c>
       <c r="AQ11" t="n">
-        <v>16262</v>
+        <v>8729948</v>
       </c>
       <c r="AR11" t="n">
-        <v>36970</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>33972</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>151899</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>8729948</v>
+        <v>256269</v>
       </c>
       <c r="AV11" t="n">
-        <v>10695</v>
+        <v>226382</v>
       </c>
       <c r="AW11" t="n">
-        <v>32590</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>29983</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>256269</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>226382</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>33200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2335,37 +2195,37 @@
         <v>272522</v>
       </c>
       <c r="C12" t="n">
-        <v>2347</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>64759</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>190052</v>
       </c>
       <c r="F12" t="n">
-        <v>14505</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>8021</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>21883</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38722</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>1312285</v>
       </c>
       <c r="K12" t="n">
-        <v>64131</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>845648</v>
       </c>
       <c r="M12" t="n">
-        <v>27954</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>143055</v>
@@ -2374,117 +2234,105 @@
         <v>575413</v>
       </c>
       <c r="P12" t="n">
-        <v>29479</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>61825</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26417</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>36277</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>17250</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>23511</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>13447</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>3708</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>7646</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>4265</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>12735</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>3156</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>52136</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>33237</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>60686</v>
+        <v>95339</v>
       </c>
       <c r="AE12" t="n">
-        <v>221707</v>
+        <v>741194</v>
       </c>
       <c r="AF12" t="n">
-        <v>95339</v>
+        <v>72106</v>
       </c>
       <c r="AG12" t="n">
-        <v>622162</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>152345</v>
+        <v>89768</v>
       </c>
       <c r="AI12" t="n">
-        <v>741194</v>
+        <v>1008842</v>
       </c>
       <c r="AJ12" t="n">
-        <v>72106</v>
+        <v>164357</v>
       </c>
       <c r="AK12" t="n">
-        <v>65274</v>
+        <v>1592371</v>
       </c>
       <c r="AL12" t="n">
-        <v>89768</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1008842</v>
+        <v>84326</v>
       </c>
       <c r="AN12" t="n">
-        <v>164357</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1592371</v>
+        <v>513395</v>
       </c>
       <c r="AP12" t="n">
-        <v>52446</v>
+        <v>219372</v>
       </c>
       <c r="AQ12" t="n">
-        <v>84326</v>
+        <v>214558</v>
       </c>
       <c r="AR12" t="n">
-        <v>28526</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>513395</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>219372</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>214558</v>
+        <v>210626</v>
       </c>
       <c r="AV12" t="n">
-        <v>26989</v>
+        <v>292667</v>
       </c>
       <c r="AW12" t="n">
-        <v>44043</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>24411</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>210626</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>292667</v>
-      </c>
-      <c r="BA12" t="n">
         <v>94578</v>
       </c>
     </row>
@@ -2495,52 +2343,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115081</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1115</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4238</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>754301</v>
       </c>
       <c r="F13" t="n">
-        <v>4304</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>29208</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>74442</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>176145</v>
       </c>
       <c r="J13" t="n">
-        <v>32543</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>517974</v>
       </c>
       <c r="L13" t="n">
-        <v>2197</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>3239012</v>
       </c>
       <c r="N13" t="n">
-        <v>41472</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>15209</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>44276</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>53744</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>134559</v>
@@ -2558,7 +2406,7 @@
         <v>222731</v>
       </c>
       <c r="W13" t="n">
-        <v>131499</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>286245</v>
@@ -2567,88 +2415,76 @@
         <v>197583</v>
       </c>
       <c r="Z13" t="n">
-        <v>572695</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>112843</v>
+        <v>1024217</v>
       </c>
       <c r="AB13" t="n">
-        <v>1024217</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>131536</v>
+        <v>544024</v>
       </c>
       <c r="AD13" t="n">
-        <v>544024</v>
+        <v>191024</v>
       </c>
       <c r="AE13" t="n">
-        <v>338235</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>191024</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>175107</v>
+        <v>177403</v>
       </c>
       <c r="AH13" t="n">
-        <v>109217</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>247</v>
+        <v>554964</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>138358</v>
       </c>
       <c r="AK13" t="n">
-        <v>177403</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>61289</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>554964</v>
+        <v>196626</v>
       </c>
       <c r="AN13" t="n">
-        <v>138358</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>83810</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>7126</v>
+        <v>163612</v>
       </c>
       <c r="AQ13" t="n">
-        <v>196626</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>18611</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>82539</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>163612</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>129987</v>
+        <v>612098</v>
       </c>
       <c r="AV13" t="n">
-        <v>35145</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>9379</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>34467</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>612098</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>107950</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2658,28 +2494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28087</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>97657</v>
       </c>
       <c r="F14" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>31033</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5139</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>51806</v>
@@ -2688,7 +2524,7 @@
         <v>114653</v>
       </c>
       <c r="L14" t="n">
-        <v>5555</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>44507</v>
@@ -2721,97 +2557,85 @@
         <v>67968</v>
       </c>
       <c r="W14" t="n">
-        <v>11201</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>59176</v>
       </c>
       <c r="Y14" t="n">
-        <v>14691</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>194783</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>17820</v>
+        <v>55985</v>
       </c>
       <c r="AB14" t="n">
-        <v>55985</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>40218</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>41899</v>
+        <v>622028</v>
       </c>
       <c r="AE14" t="n">
-        <v>1344543</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>622028</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1007765</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>384491</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>24225</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>2388</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>15017</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>5798</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1322</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>70418</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>44236</v>
       </c>
       <c r="AR14" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>7163</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>70418</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>44236</v>
+        <v>42595</v>
       </c>
       <c r="AV14" t="n">
-        <v>1615</v>
+        <v>51682</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>163</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>42595</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>51682</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>31079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2821,22 +2645,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1259</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>100130</v>
@@ -2845,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2863,7 +2687,7 @@
         <v>10888496</v>
       </c>
       <c r="P15" t="n">
-        <v>8472</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>2397603</v>
@@ -2893,31 +2717,31 @@
         <v>41463</v>
       </c>
       <c r="Z15" t="n">
-        <v>455836</v>
+        <v>185242</v>
       </c>
       <c r="AA15" t="n">
-        <v>185242</v>
+        <v>1023254</v>
       </c>
       <c r="AB15" t="n">
-        <v>1023254</v>
+        <v>628357</v>
       </c>
       <c r="AC15" t="n">
-        <v>628357</v>
+        <v>29061</v>
       </c>
       <c r="AD15" t="n">
-        <v>29061</v>
+        <v>138140</v>
       </c>
       <c r="AE15" t="n">
-        <v>532151</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>138140</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>285057</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>298154</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -2926,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>164</v>
+        <v>10909</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
@@ -2938,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>10909</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
@@ -2950,30 +2774,18 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1429</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>7584</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>1037</v>
-      </c>
-      <c r="BA15" t="n">
         <v>22265</v>
       </c>
     </row>
@@ -2987,25 +2799,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>46385</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27037</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>79392</v>
@@ -3014,10 +2826,10 @@
         <v>56933</v>
       </c>
       <c r="L16" t="n">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>33076</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>55343</v>
@@ -3056,88 +2868,76 @@
         <v>202294</v>
       </c>
       <c r="Z16" t="n">
-        <v>87133</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>33754</v>
+        <v>849801</v>
       </c>
       <c r="AB16" t="n">
-        <v>849801</v>
+        <v>127025</v>
       </c>
       <c r="AC16" t="n">
-        <v>127025</v>
+        <v>105488</v>
       </c>
       <c r="AD16" t="n">
-        <v>105488</v>
+        <v>84486</v>
       </c>
       <c r="AE16" t="n">
-        <v>164859</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>84486</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>50795</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>195697</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>7717</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1211</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>86801</v>
       </c>
       <c r="AR16" t="n">
-        <v>2809</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>8654</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>3457</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>86801</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>928</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>24976</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>14425</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>19079</v>
       </c>
     </row>
     <row r="17">
@@ -3147,49 +2947,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16056</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3777</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>10691</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>462471</v>
       </c>
       <c r="F17" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6608</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>128454</v>
       </c>
       <c r="I17" t="n">
-        <v>10705</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45507</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>208429</v>
       </c>
       <c r="L17" t="n">
-        <v>7156</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>85838</v>
       </c>
       <c r="N17" t="n">
-        <v>59362</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19419</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13636</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>867325</v>
@@ -3219,88 +3019,76 @@
         <v>133432</v>
       </c>
       <c r="Z17" t="n">
-        <v>60515</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>28287</v>
+        <v>263537</v>
       </c>
       <c r="AB17" t="n">
-        <v>263537</v>
+        <v>165874</v>
       </c>
       <c r="AC17" t="n">
-        <v>165874</v>
+        <v>109805</v>
       </c>
       <c r="AD17" t="n">
-        <v>109805</v>
+        <v>2018973</v>
       </c>
       <c r="AE17" t="n">
-        <v>3002084</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>2018973</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>618697</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>602815</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>5767</v>
+        <v>258027</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4884</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>4120</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>258027</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>30229</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>64810</v>
+        <v>199930</v>
       </c>
       <c r="AP17" t="n">
-        <v>12150</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4133</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>3949</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>199930</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>7964</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>23458</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>11266</v>
+        <v>110397</v>
       </c>
       <c r="AW17" t="n">
-        <v>7981</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>54</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>68496</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>110397</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>23459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3310,13 +3098,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -3337,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -3349,10 +3137,10 @@
         <v>10952</v>
       </c>
       <c r="O18" t="n">
-        <v>2540</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>11459</v>
@@ -3382,31 +3170,31 @@
         <v>9136</v>
       </c>
       <c r="Z18" t="n">
-        <v>6951</v>
+        <v>4783</v>
       </c>
       <c r="AA18" t="n">
-        <v>4783</v>
+        <v>248951</v>
       </c>
       <c r="AB18" t="n">
-        <v>248951</v>
+        <v>135173</v>
       </c>
       <c r="AC18" t="n">
-        <v>135173</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>2963</v>
+        <v>7272</v>
       </c>
       <c r="AE18" t="n">
-        <v>289605</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>7272</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>71737</v>
+        <v>55074</v>
       </c>
       <c r="AH18" t="n">
-        <v>55481</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
@@ -3415,54 +3203,42 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>55074</v>
+        <v>3171</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>3171</v>
+        <v>14487</v>
       </c>
       <c r="AP18" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>14487</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>504360</v>
       </c>
       <c r="AV18" t="n">
         <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>504360</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>249</v>
-      </c>
-      <c r="BA18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3473,10 +3249,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1350</v>
@@ -3491,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -3503,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>40365</v>
@@ -3515,7 +3291,7 @@
         <v>3751</v>
       </c>
       <c r="P19" t="n">
-        <v>1113</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>6078</v>
@@ -3545,87 +3321,75 @@
         <v>4868</v>
       </c>
       <c r="Z19" t="n">
-        <v>4742</v>
+        <v>1513</v>
       </c>
       <c r="AA19" t="n">
-        <v>1513</v>
+        <v>19011</v>
       </c>
       <c r="AB19" t="n">
-        <v>19011</v>
+        <v>15551</v>
       </c>
       <c r="AC19" t="n">
-        <v>15551</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>947</v>
+        <v>1449</v>
       </c>
       <c r="AE19" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1449</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>2337</v>
+        <v>1684</v>
       </c>
       <c r="AH19" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1684</v>
+        <v>2214</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>2214</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>915567</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>746</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>915567</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>328</v>
-      </c>
-      <c r="BA19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3645,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -3660,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -3681,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>27861</v>
@@ -3708,87 +3472,75 @@
         <v>3962</v>
       </c>
       <c r="Z20" t="n">
-        <v>2368</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>732</v>
+        <v>6456</v>
       </c>
       <c r="AB20" t="n">
-        <v>6456</v>
+        <v>6682</v>
       </c>
       <c r="AC20" t="n">
-        <v>6682</v>
+        <v>1312</v>
       </c>
       <c r="AD20" t="n">
-        <v>1312</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>8769</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>98160</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>574</v>
+        <v>1050</v>
       </c>
       <c r="AL20" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>98160</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>450</v>
+        <v>7087</v>
       </c>
       <c r="AO20" t="n">
-        <v>1050</v>
+        <v>138725</v>
       </c>
       <c r="AP20" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>778531</v>
       </c>
       <c r="AR20" t="n">
-        <v>7087</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>138725</v>
+        <v>14258</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>778531</v>
+        <v>231946</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>24314</v>
       </c>
       <c r="AW20" t="n">
-        <v>14258</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>231946</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>24314</v>
-      </c>
-      <c r="BA20" t="n">
         <v>36356</v>
       </c>
     </row>
@@ -3799,49 +3551,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1115</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>33213</v>
@@ -3871,87 +3623,75 @@
         <v>1504114</v>
       </c>
       <c r="Z21" t="n">
-        <v>9723</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>2038</v>
+        <v>552651</v>
       </c>
       <c r="AB21" t="n">
-        <v>552651</v>
+        <v>25065</v>
       </c>
       <c r="AC21" t="n">
-        <v>25065</v>
+        <v>52103</v>
       </c>
       <c r="AD21" t="n">
-        <v>52103</v>
+        <v>2407</v>
       </c>
       <c r="AE21" t="n">
-        <v>18091</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>2407</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>11599</v>
       </c>
       <c r="AM21" t="n">
-        <v>1517</v>
+        <v>15070</v>
       </c>
       <c r="AN21" t="n">
-        <v>1170</v>
+        <v>19462</v>
       </c>
       <c r="AO21" t="n">
-        <v>208</v>
+        <v>98849</v>
       </c>
       <c r="AP21" t="n">
-        <v>11599</v>
+        <v>42334</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15070</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>19462</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>98849</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>42334</v>
+        <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>223</v>
+        <v>855047</v>
       </c>
       <c r="AV21" t="n">
         <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>74</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>855047</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>458</v>
-      </c>
-      <c r="BA21" t="n">
         <v>54385</v>
       </c>
     </row>
@@ -3995,16 +3735,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>6568</v>
@@ -4034,31 +3774,31 @@
         <v>39683</v>
       </c>
       <c r="Z22" t="n">
-        <v>515160</v>
+        <v>36990</v>
       </c>
       <c r="AA22" t="n">
-        <v>36990</v>
+        <v>1014276</v>
       </c>
       <c r="AB22" t="n">
-        <v>1014276</v>
+        <v>68771</v>
       </c>
       <c r="AC22" t="n">
-        <v>68771</v>
+        <v>806</v>
       </c>
       <c r="AD22" t="n">
-        <v>806</v>
+        <v>58966</v>
       </c>
       <c r="AE22" t="n">
-        <v>61648</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>58966</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>25112</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>32702</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
@@ -4067,22 +3807,22 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="AL22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
@@ -4091,30 +3831,18 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>1</v>
+        <v>219811</v>
       </c>
       <c r="AV22" t="n">
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>219811</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>69</v>
-      </c>
-      <c r="BA22" t="n">
         <v>316</v>
       </c>
     </row>
@@ -4203,16 +3931,16 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>5276</v>
       </c>
       <c r="AC23" t="n">
-        <v>5276</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>101385</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -4230,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="AL23" t="n">
         <v>0</v>
@@ -4239,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>3299</v>
       </c>
       <c r="AO23" t="n">
-        <v>639</v>
+        <v>21583</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
@@ -4251,33 +3979,21 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>3299</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>21583</v>
+        <v>887</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>85434</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AW23" t="n">
-        <v>887</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>85434</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>980</v>
-      </c>
-      <c r="BA23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4288,52 +4004,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1663</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>18582</v>
@@ -4360,88 +4076,76 @@
         <v>52734</v>
       </c>
       <c r="Z24" t="n">
-        <v>252531</v>
+        <v>29976</v>
       </c>
       <c r="AA24" t="n">
-        <v>29976</v>
+        <v>71277</v>
       </c>
       <c r="AB24" t="n">
-        <v>71277</v>
+        <v>38897</v>
       </c>
       <c r="AC24" t="n">
-        <v>38897</v>
+        <v>7479</v>
       </c>
       <c r="AD24" t="n">
-        <v>7479</v>
+        <v>39542</v>
       </c>
       <c r="AE24" t="n">
-        <v>130821</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>39542</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>23628</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>19067</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>83</v>
+        <v>18728</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>1173</v>
+        <v>5323</v>
       </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>18728</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1162</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>5323</v>
+        <v>50605</v>
       </c>
       <c r="AP24" t="n">
-        <v>2872</v>
+        <v>17764</v>
       </c>
       <c r="AQ24" t="n">
-        <v>843</v>
+        <v>4021</v>
       </c>
       <c r="AR24" t="n">
-        <v>3986</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>50605</v>
+        <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>17764</v>
+        <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>4021</v>
+        <v>111414</v>
       </c>
       <c r="AV24" t="n">
-        <v>8</v>
+        <v>5349</v>
       </c>
       <c r="AW24" t="n">
-        <v>252</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>111414</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>5349</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>3053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4451,52 +4155,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>9012</v>
@@ -4505,112 +4209,100 @@
         <v>3443</v>
       </c>
       <c r="T25" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>772</v>
       </c>
       <c r="V25" t="n">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>119921</v>
       </c>
       <c r="Z25" t="n">
-        <v>277924</v>
+        <v>32557</v>
       </c>
       <c r="AA25" t="n">
-        <v>32557</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>358</v>
+        <v>21502</v>
       </c>
       <c r="AC25" t="n">
-        <v>21502</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>335</v>
+        <v>5103</v>
       </c>
       <c r="AE25" t="n">
-        <v>43258</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>5103</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>41876</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>22320</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>282</v>
+        <v>25758</v>
       </c>
       <c r="AJ25" t="n">
-        <v>43</v>
+        <v>9856</v>
       </c>
       <c r="AK25" t="n">
-        <v>45</v>
+        <v>4570</v>
       </c>
       <c r="AL25" t="n">
-        <v>112</v>
+        <v>2385</v>
       </c>
       <c r="AM25" t="n">
-        <v>25758</v>
+        <v>7173</v>
       </c>
       <c r="AN25" t="n">
-        <v>9856</v>
+        <v>1974</v>
       </c>
       <c r="AO25" t="n">
-        <v>4570</v>
+        <v>67565</v>
       </c>
       <c r="AP25" t="n">
-        <v>2385</v>
+        <v>3111</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7173</v>
+        <v>1308</v>
       </c>
       <c r="AR25" t="n">
-        <v>1974</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>67565</v>
+        <v>32683</v>
       </c>
       <c r="AT25" t="n">
-        <v>3111</v>
+        <v>969</v>
       </c>
       <c r="AU25" t="n">
-        <v>1308</v>
+        <v>58931</v>
       </c>
       <c r="AV25" t="n">
-        <v>306</v>
+        <v>4238</v>
       </c>
       <c r="AW25" t="n">
-        <v>32683</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>969</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>58931</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>4238</v>
-      </c>
-      <c r="BA25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>乗用車</t>
+          <t>その他の自動車</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4686,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>157767</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -4731,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>14208</v>
       </c>
       <c r="AP26" t="n">
         <v>0</v>
@@ -4749,44 +4441,32 @@
         <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>0</v>
+        <v>37967</v>
       </c>
       <c r="AV26" t="n">
         <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>その他の自動車</t>
+          <t>自動車部品・同附属品</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -4813,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -4822,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>8087</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -4849,19 +4529,19 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1820461</v>
       </c>
       <c r="AA27" t="n">
-        <v>157767</v>
+        <v>8623194</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>133416</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -4873,246 +4553,222 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
         <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>14208</v>
+        <v>0</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>0</v>
+        <v>1355374</v>
       </c>
       <c r="AV27" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>37967</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>自動車部品・同附属品</t>
+          <t>その他の輸送機械</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88</v>
+        <v>63351</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>8087</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>8258796</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1820461</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>8623194</v>
+        <v>1625445</v>
       </c>
       <c r="AC28" t="n">
-        <v>133416</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>839273</v>
       </c>
       <c r="AL28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>7</v>
+        <v>222762</v>
       </c>
       <c r="AP28" t="n">
-        <v>13</v>
+        <v>2434</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AT28" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>33</v>
+        <v>87771</v>
       </c>
       <c r="AV28" t="n">
-        <v>5</v>
+        <v>902</v>
       </c>
       <c r="AW28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>1355374</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>49</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>その他の輸送機械</t>
+          <t>その他の製造工業製品</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>63351</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>288294</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -5124,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>121503</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -5142,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>175615</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>263026</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -5184,13 +4840,13 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>1625445</v>
+        <v>355714</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>164353</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -5202,230 +4858,206 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>463902</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>470511</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>200818</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>262444</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>549036</v>
       </c>
       <c r="AO29" t="n">
-        <v>839273</v>
+        <v>346786</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>666718</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>254126</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>182944</v>
       </c>
       <c r="AS29" t="n">
-        <v>222762</v>
+        <v>83185</v>
       </c>
       <c r="AT29" t="n">
-        <v>2434</v>
+        <v>236844</v>
       </c>
       <c r="AU29" t="n">
-        <v>0</v>
+        <v>330457</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>238690</v>
       </c>
       <c r="AW29" t="n">
-        <v>72</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>87771</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>902</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>0</v>
+        <v>189052</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>その他の製造工業製品</t>
+          <t>建設補修</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39998</v>
+        <v>38095</v>
       </c>
       <c r="C30" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2784</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>288294</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1256</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>42987</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>57424</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>121503</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>26124</v>
+        <v>38881</v>
       </c>
       <c r="K30" t="n">
-        <v>66595</v>
+        <v>50020</v>
       </c>
       <c r="L30" t="n">
-        <v>22927</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>29731</v>
+        <v>43344</v>
       </c>
       <c r="N30" t="n">
-        <v>56918</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>175615</v>
+        <v>95514</v>
       </c>
       <c r="P30" t="n">
-        <v>263026</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>29794</v>
+        <v>46383</v>
       </c>
       <c r="R30" t="n">
-        <v>14662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44258</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>37470</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>58537</v>
+        <v>46303</v>
       </c>
       <c r="V30" t="n">
-        <v>16616</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>27386</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>16837</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>35826</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>30596</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>5776</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>30610</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>19969</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>355714</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>52026</v>
+        <v>259441</v>
       </c>
       <c r="AF30" t="n">
-        <v>65025</v>
+        <v>80301</v>
       </c>
       <c r="AG30" t="n">
-        <v>58164</v>
+        <v>156716</v>
       </c>
       <c r="AH30" t="n">
-        <v>29895</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>164353</v>
+        <v>307616</v>
       </c>
       <c r="AJ30" t="n">
-        <v>37157</v>
+        <v>879971</v>
       </c>
       <c r="AK30" t="n">
-        <v>19448</v>
+        <v>213046</v>
       </c>
       <c r="AL30" t="n">
-        <v>21726</v>
+        <v>143617</v>
       </c>
       <c r="AM30" t="n">
-        <v>463902</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>470511</v>
+        <v>50709</v>
       </c>
       <c r="AO30" t="n">
-        <v>82529</v>
+        <v>406083</v>
       </c>
       <c r="AP30" t="n">
-        <v>200818</v>
+        <v>252970</v>
       </c>
       <c r="AQ30" t="n">
-        <v>262444</v>
+        <v>162038</v>
       </c>
       <c r="AR30" t="n">
-        <v>549036</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>346786</v>
+        <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>666718</v>
+        <v>0</v>
       </c>
       <c r="AU30" t="n">
-        <v>254126</v>
+        <v>83145</v>
       </c>
       <c r="AV30" t="n">
-        <v>182944</v>
+        <v>94687</v>
       </c>
       <c r="AW30" t="n">
-        <v>83185</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>236844</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>330457</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>238690</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>189052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>電力</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5438,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>381691</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -5450,10 +5082,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>402478</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>513373</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -5462,19 +5094,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>349732</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>284986</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>874302</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>281119</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>227822</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -5486,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>330547</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -5504,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>237396</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -5516,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1823767</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -5525,16 +5157,16 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>392612</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1617126</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>440159</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>469313</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -5546,13 +5178,13 @@
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>411067</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>660532</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>618261</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -5564,194 +5196,170 @@
         <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>225218</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>857848</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>建設補修</t>
+          <t>ガス・熱供給</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>38095</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>4063</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>21104</v>
+        <v>86968</v>
       </c>
       <c r="F32" t="n">
-        <v>3511</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3834</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6360</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34802</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38881</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>50020</v>
+        <v>37677</v>
       </c>
       <c r="L32" t="n">
-        <v>5617</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>43344</v>
+        <v>58665</v>
       </c>
       <c r="N32" t="n">
-        <v>36364</v>
+        <v>25158</v>
       </c>
       <c r="O32" t="n">
-        <v>95514</v>
+        <v>86574</v>
       </c>
       <c r="P32" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>46383</v>
+        <v>32469</v>
       </c>
       <c r="R32" t="n">
-        <v>18580</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>28492</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8549</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>46303</v>
+        <v>20134</v>
       </c>
       <c r="V32" t="n">
-        <v>16921</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>4233</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7423</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>9054</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>3603</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>2771</v>
+        <v>58500</v>
       </c>
       <c r="AB32" t="n">
-        <v>13650</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>14552</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>14279</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>23624</v>
+        <v>20986</v>
       </c>
       <c r="AF32" t="n">
-        <v>15705</v>
+        <v>36611</v>
       </c>
       <c r="AG32" t="n">
-        <v>10068</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>3535</v>
+        <v>14424</v>
       </c>
       <c r="AI32" t="n">
-        <v>259441</v>
+        <v>304661</v>
       </c>
       <c r="AJ32" t="n">
-        <v>80301</v>
+        <v>51482</v>
       </c>
       <c r="AK32" t="n">
-        <v>156716</v>
+        <v>16426</v>
       </c>
       <c r="AL32" t="n">
-        <v>19114</v>
+        <v>16342</v>
       </c>
       <c r="AM32" t="n">
-        <v>307616</v>
+        <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>879971</v>
+        <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>213046</v>
+        <v>89779</v>
       </c>
       <c r="AP32" t="n">
-        <v>143617</v>
+        <v>120658</v>
       </c>
       <c r="AQ32" t="n">
-        <v>13817</v>
+        <v>169739</v>
       </c>
       <c r="AR32" t="n">
-        <v>50709</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>406083</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>252970</v>
+        <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>162038</v>
+        <v>85478</v>
       </c>
       <c r="AV32" t="n">
-        <v>8346</v>
+        <v>346023</v>
       </c>
       <c r="AW32" t="n">
-        <v>18486</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>2368</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>83145</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>94687</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>公共事業</t>
+          <t>水道</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5764,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>71998</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -5776,25 +5384,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>22511</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>27798</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>41819</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>13434</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>24686</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -5812,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>19156</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -5839,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>18842</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -5848,37 +5456,37 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>390729</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>63861</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>332089</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>87400</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>88250</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>93994</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>12373</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>211291</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>431439</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>357229</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -5890,31 +5498,19 @@
         <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>0</v>
+        <v>61786</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>383661</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>その他の土木建設</t>
+          <t>廃棄物処理</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5927,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>38432</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -5939,13 +5535,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>10793</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>25696</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>54219</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5954,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>19219</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -5975,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>12370</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5996,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>31330</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -6005,43 +5601,43 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>292270</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>11142</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>147145</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>138801</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>265498</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>220607</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>25201</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1675902</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>271246</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>329396</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -6053,1665 +5649,1533 @@
         <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>22138</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>918406</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>0</v>
+        <v>76915</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>電力</t>
+          <t>商業</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>114106</v>
+        <v>863625</v>
       </c>
       <c r="C35" t="n">
-        <v>9252</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>18840</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381691</v>
+        <v>2668002</v>
       </c>
       <c r="F35" t="n">
-        <v>36741</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>32670</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>64805</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>402478</v>
+        <v>570480</v>
       </c>
       <c r="J35" t="n">
-        <v>513373</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>212480</v>
+        <v>758274</v>
       </c>
       <c r="L35" t="n">
-        <v>106086</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>349732</v>
+        <v>724025</v>
       </c>
       <c r="N35" t="n">
-        <v>284986</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>874302</v>
+        <v>521364</v>
       </c>
       <c r="P35" t="n">
-        <v>281119</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>227822</v>
+        <v>524381</v>
       </c>
       <c r="R35" t="n">
-        <v>118377</v>
+        <v>440355</v>
       </c>
       <c r="S35" t="n">
-        <v>151581</v>
+        <v>640709</v>
       </c>
       <c r="T35" t="n">
-        <v>47237</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>330547</v>
+        <v>499754</v>
       </c>
       <c r="V35" t="n">
-        <v>63448</v>
+        <v>402984</v>
       </c>
       <c r="W35" t="n">
-        <v>16967</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>43613</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>23476</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>76411</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>15551</v>
+        <v>1156148</v>
       </c>
       <c r="AB35" t="n">
-        <v>237396</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>97392</v>
+        <v>566962</v>
       </c>
       <c r="AD35" t="n">
-        <v>138952</v>
+        <v>775145</v>
       </c>
       <c r="AE35" t="n">
-        <v>73342</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>17751</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>25972</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>26612</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>1823767</v>
+        <v>1197329</v>
       </c>
       <c r="AJ35" t="n">
-        <v>58422</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>224584</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>392612</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>1617126</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>440159</v>
+        <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>469313</v>
+        <v>494789</v>
       </c>
       <c r="AP35" t="n">
-        <v>200246</v>
+        <v>842536</v>
       </c>
       <c r="AQ35" t="n">
-        <v>41484</v>
+        <v>3124731</v>
       </c>
       <c r="AR35" t="n">
-        <v>40557</v>
+        <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>411067</v>
+        <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>660532</v>
+        <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>618261</v>
+        <v>1226547</v>
       </c>
       <c r="AV35" t="n">
-        <v>13008</v>
+        <v>2990917</v>
       </c>
       <c r="AW35" t="n">
-        <v>26794</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>29681</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>225218</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>857848</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>19336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ガス・熱供給</t>
+          <t>金融・保険・不動産</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>86968</v>
+        <v>354025</v>
       </c>
       <c r="F36" t="n">
-        <v>7954</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2154</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8980</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13792</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>37677</v>
+        <v>198431</v>
       </c>
       <c r="L36" t="n">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>58665</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>25158</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>86574</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>13518</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>32469</v>
+        <v>207494</v>
       </c>
       <c r="R36" t="n">
-        <v>10726</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>11882</v>
+        <v>174565</v>
       </c>
       <c r="T36" t="n">
-        <v>6913</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>20134</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>5661</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>5440</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>2693</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>15157</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>13820</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>58500</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>13608</v>
+        <v>171115</v>
       </c>
       <c r="AD36" t="n">
-        <v>6387</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>16537</v>
+        <v>500083</v>
       </c>
       <c r="AF36" t="n">
-        <v>7596</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>5334</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>2901</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>20986</v>
+        <v>4519087</v>
       </c>
       <c r="AJ36" t="n">
-        <v>36611</v>
+        <v>12378241</v>
       </c>
       <c r="AK36" t="n">
-        <v>5663</v>
+        <v>1725757</v>
       </c>
       <c r="AL36" t="n">
-        <v>14424</v>
+        <v>463266</v>
       </c>
       <c r="AM36" t="n">
-        <v>304661</v>
+        <v>892416</v>
       </c>
       <c r="AN36" t="n">
-        <v>51482</v>
+        <v>427688</v>
       </c>
       <c r="AO36" t="n">
-        <v>16426</v>
+        <v>1251582</v>
       </c>
       <c r="AP36" t="n">
-        <v>16342</v>
+        <v>800599</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2874</v>
+        <v>1902256</v>
       </c>
       <c r="AR36" t="n">
-        <v>5790</v>
+        <v>220003</v>
       </c>
       <c r="AS36" t="n">
-        <v>89779</v>
+        <v>574015</v>
       </c>
       <c r="AT36" t="n">
-        <v>120658</v>
+        <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>169739</v>
+        <v>933661</v>
       </c>
       <c r="AV36" t="n">
-        <v>5579</v>
+        <v>938353</v>
       </c>
       <c r="AW36" t="n">
-        <v>613</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>1544</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>85478</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>346023</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>807</v>
+        <v>204977</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>水道</t>
+          <t>運輸・郵便</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10985</v>
+        <v>418635</v>
       </c>
       <c r="C37" t="n">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2275</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>71998</v>
+        <v>1179355</v>
       </c>
       <c r="F37" t="n">
-        <v>2518</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2178</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2483</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>22511</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>27798</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>41819</v>
+        <v>439794</v>
       </c>
       <c r="L37" t="n">
-        <v>8252</v>
+        <v>329230</v>
       </c>
       <c r="M37" t="n">
-        <v>13434</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>8050</v>
+        <v>294586</v>
       </c>
       <c r="O37" t="n">
-        <v>24686</v>
+        <v>418573</v>
       </c>
       <c r="P37" t="n">
-        <v>6723</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>8489</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>8966</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>3802</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>19156</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>3897</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>3809</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>4911</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>1265</v>
+        <v>313852</v>
       </c>
       <c r="AB37" t="n">
-        <v>7003</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>6977</v>
+        <v>704628</v>
       </c>
       <c r="AD37" t="n">
-        <v>8307</v>
+        <v>345183</v>
       </c>
       <c r="AE37" t="n">
-        <v>22424</v>
+        <v>635360</v>
       </c>
       <c r="AF37" t="n">
-        <v>18842</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>10560</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>6044</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>8041</v>
+        <v>1768814</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10298</v>
+        <v>902183</v>
       </c>
       <c r="AK37" t="n">
-        <v>390729</v>
+        <v>3321589</v>
       </c>
       <c r="AL37" t="n">
-        <v>63861</v>
+        <v>365282</v>
       </c>
       <c r="AM37" t="n">
-        <v>332089</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>87400</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>88250</v>
+        <v>956449</v>
       </c>
       <c r="AP37" t="n">
-        <v>93994</v>
+        <v>712841</v>
       </c>
       <c r="AQ37" t="n">
-        <v>7029</v>
+        <v>800171</v>
       </c>
       <c r="AR37" t="n">
-        <v>12373</v>
+        <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>211291</v>
+        <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>431439</v>
+        <v>0</v>
       </c>
       <c r="AU37" t="n">
-        <v>357229</v>
+        <v>550528</v>
       </c>
       <c r="AV37" t="n">
-        <v>10260</v>
+        <v>860763</v>
       </c>
       <c r="AW37" t="n">
-        <v>3836</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>1397</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>61786</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>383661</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>9532</v>
+        <v>403513</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>廃棄物処理</t>
+          <t>通信・放送</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6852</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1561</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>38432</v>
+        <v>20591</v>
       </c>
       <c r="F38" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>10793</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>25696</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>54219</v>
+        <v>123940</v>
       </c>
       <c r="L38" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>19219</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>4025</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1632</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1271</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3426</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>407</v>
+        <v>16884</v>
       </c>
       <c r="T38" t="n">
-        <v>3299</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>12370</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1511</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2281</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>1133</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>31330</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>3276</v>
+        <v>179036</v>
       </c>
       <c r="AE38" t="n">
-        <v>14643</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>89994</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>58682</v>
+        <v>23852</v>
       </c>
       <c r="AI38" t="n">
-        <v>292270</v>
+        <v>1233291</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7899</v>
+        <v>634498</v>
       </c>
       <c r="AK38" t="n">
-        <v>11142</v>
+        <v>116706</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>3842899</v>
       </c>
       <c r="AM38" t="n">
-        <v>147145</v>
+        <v>70586</v>
       </c>
       <c r="AN38" t="n">
-        <v>138801</v>
+        <v>1040612</v>
       </c>
       <c r="AO38" t="n">
-        <v>265498</v>
+        <v>356314</v>
       </c>
       <c r="AP38" t="n">
-        <v>220607</v>
+        <v>266830</v>
       </c>
       <c r="AQ38" t="n">
-        <v>4746</v>
+        <v>223173</v>
       </c>
       <c r="AR38" t="n">
-        <v>25201</v>
+        <v>65265</v>
       </c>
       <c r="AS38" t="n">
-        <v>1675902</v>
+        <v>11366</v>
       </c>
       <c r="AT38" t="n">
-        <v>271246</v>
+        <v>2005277</v>
       </c>
       <c r="AU38" t="n">
-        <v>329396</v>
+        <v>192193</v>
       </c>
       <c r="AV38" t="n">
-        <v>195</v>
+        <v>384983</v>
       </c>
       <c r="AW38" t="n">
-        <v>5173</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>1050</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>22138</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>918406</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>76915</v>
+        <v>255356</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>商業</t>
+          <t>情報サービス</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>863625</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>2512</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>21281</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2668002</v>
+        <v>99191</v>
       </c>
       <c r="F39" t="n">
-        <v>60882</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>145926</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>268112</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>570480</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>266060</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>758274</v>
+        <v>178130</v>
       </c>
       <c r="L39" t="n">
-        <v>152654</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>724025</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>213009</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521364</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>294037</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>524381</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>440355</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>640709</v>
+        <v>151508</v>
       </c>
       <c r="T39" t="n">
-        <v>260417</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>499754</v>
+        <v>83268</v>
       </c>
       <c r="V39" t="n">
-        <v>402984</v>
+        <v>101444</v>
       </c>
       <c r="W39" t="n">
-        <v>144863</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>222473</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>196264</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>256816</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>56123</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>1156148</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>298949</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>566962</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1579202</v>
+        <v>223837</v>
       </c>
       <c r="AF39" t="n">
-        <v>775145</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>612735</v>
+        <v>211749</v>
       </c>
       <c r="AH39" t="n">
-        <v>292001</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>313006</v>
+        <v>1685178</v>
       </c>
       <c r="AJ39" t="n">
-        <v>71432</v>
+        <v>1583225</v>
       </c>
       <c r="AK39" t="n">
-        <v>100387</v>
+        <v>214072</v>
       </c>
       <c r="AL39" t="n">
-        <v>90197</v>
+        <v>601804</v>
       </c>
       <c r="AM39" t="n">
-        <v>1197329</v>
+        <v>574593</v>
       </c>
       <c r="AN39" t="n">
-        <v>332520</v>
+        <v>489224</v>
       </c>
       <c r="AO39" t="n">
-        <v>380904</v>
+        <v>801125</v>
       </c>
       <c r="AP39" t="n">
-        <v>125355</v>
+        <v>629030</v>
       </c>
       <c r="AQ39" t="n">
-        <v>301273</v>
+        <v>443924</v>
       </c>
       <c r="AR39" t="n">
-        <v>208615</v>
+        <v>156552</v>
       </c>
       <c r="AS39" t="n">
-        <v>494789</v>
+        <v>113489</v>
       </c>
       <c r="AT39" t="n">
-        <v>842536</v>
+        <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>3124731</v>
+        <v>835659</v>
       </c>
       <c r="AV39" t="n">
-        <v>170158</v>
+        <v>240783</v>
       </c>
       <c r="AW39" t="n">
-        <v>143349</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>49961</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>1226547</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>2990917</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>401663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>金融・保険・不動産</t>
+          <t>その他の情報通信</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141467</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>7737</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>39363</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>354025</v>
+        <v>56191</v>
       </c>
       <c r="F40" t="n">
-        <v>25660</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43210</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>64361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83649</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>89106</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>198431</v>
+        <v>52421</v>
       </c>
       <c r="L40" t="n">
-        <v>70118</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>111503</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>96499</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>140277</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>81561</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>207494</v>
+        <v>24322</v>
       </c>
       <c r="R40" t="n">
-        <v>109732</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>174565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>86720</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>109397</v>
+        <v>35373</v>
       </c>
       <c r="V40" t="n">
-        <v>59806</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>29639</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>53699</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>47452</v>
+        <v>20576</v>
       </c>
       <c r="Z40" t="n">
-        <v>74915</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>15258</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>91649</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>95051</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>171115</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>604255</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>130332</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>326021</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>156028</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>500083</v>
+        <v>646780</v>
       </c>
       <c r="AJ40" t="n">
-        <v>69967</v>
+        <v>297968</v>
       </c>
       <c r="AK40" t="n">
-        <v>151455</v>
+        <v>107086</v>
       </c>
       <c r="AL40" t="n">
-        <v>156479</v>
+        <v>1487204</v>
       </c>
       <c r="AM40" t="n">
-        <v>4519087</v>
+        <v>498829</v>
       </c>
       <c r="AN40" t="n">
-        <v>12378241</v>
+        <v>1172190</v>
       </c>
       <c r="AO40" t="n">
-        <v>1725757</v>
+        <v>230555</v>
       </c>
       <c r="AP40" t="n">
-        <v>463266</v>
+        <v>282070</v>
       </c>
       <c r="AQ40" t="n">
-        <v>892416</v>
+        <v>206991</v>
       </c>
       <c r="AR40" t="n">
-        <v>427688</v>
+        <v>89659</v>
       </c>
       <c r="AS40" t="n">
-        <v>1251582</v>
+        <v>24039</v>
       </c>
       <c r="AT40" t="n">
-        <v>800599</v>
+        <v>1504966</v>
       </c>
       <c r="AU40" t="n">
-        <v>1902256</v>
+        <v>845079</v>
       </c>
       <c r="AV40" t="n">
-        <v>220003</v>
+        <v>202547</v>
       </c>
       <c r="AW40" t="n">
-        <v>574015</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>26814</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>933661</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>938353</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>204977</v>
+        <v>122698</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>運輸・郵便</t>
+          <t>公務</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>418635</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>20296</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1179355</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>20310</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>36814</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>131708</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>282033</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>205018</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>439794</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>329230</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>257531</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>294586</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>418573</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>244144</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>267078</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>167802</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>232502</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>100992</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>212425</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>151795</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>44079</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>91556</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>91189</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>296221</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>73636</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>313852</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>100905</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>704628</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>836049</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>345183</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>479164</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>256340</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>635360</v>
+        <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>252646</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>80377</v>
+        <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>229326</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="n">
-        <v>1768814</v>
+        <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>902183</v>
+        <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>3321589</v>
+        <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>365282</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>262293</v>
+        <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>251753</v>
+        <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>956449</v>
+        <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>712841</v>
+        <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>800171</v>
+        <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>116687</v>
+        <v>0</v>
       </c>
       <c r="AW41" t="n">
-        <v>107726</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>57533</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>550528</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>860763</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>403513</v>
+        <v>1327291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>通信・放送</t>
+          <t>教育・研究</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9687</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>20591</v>
+        <v>8027</v>
       </c>
       <c r="F42" t="n">
-        <v>1299</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1843</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2711</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>4719</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2513</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>123940</v>
+        <v>5355</v>
       </c>
       <c r="L42" t="n">
-        <v>2254</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>9120</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>4248</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>5468</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2157</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>8082</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10248</v>
+        <v>5608</v>
       </c>
       <c r="S42" t="n">
-        <v>16884</v>
+        <v>5914</v>
       </c>
       <c r="T42" t="n">
-        <v>6567</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5523</v>
+        <v>14397</v>
       </c>
       <c r="V42" t="n">
-        <v>5286</v>
+        <v>6732</v>
       </c>
       <c r="W42" t="n">
-        <v>2028</v>
+        <v>4702</v>
       </c>
       <c r="X42" t="n">
-        <v>6742</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>3544</v>
+        <v>7004</v>
       </c>
       <c r="Z42" t="n">
-        <v>2375</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>783</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>8683</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>3114</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>9367</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>15688</v>
+        <v>9638</v>
       </c>
       <c r="AF42" t="n">
-        <v>179036</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>61657</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>33024</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>6775</v>
+        <v>17294</v>
       </c>
       <c r="AJ42" t="n">
-        <v>2710</v>
+        <v>6150</v>
       </c>
       <c r="AK42" t="n">
-        <v>8954</v>
+        <v>35037</v>
       </c>
       <c r="AL42" t="n">
-        <v>23852</v>
+        <v>92878</v>
       </c>
       <c r="AM42" t="n">
-        <v>1233291</v>
+        <v>75377</v>
       </c>
       <c r="AN42" t="n">
-        <v>634498</v>
+        <v>36103</v>
       </c>
       <c r="AO42" t="n">
-        <v>116706</v>
+        <v>4776</v>
       </c>
       <c r="AP42" t="n">
-        <v>3842899</v>
+        <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>70586</v>
+        <v>5269</v>
       </c>
       <c r="AR42" t="n">
-        <v>1040612</v>
+        <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>356314</v>
+        <v>0</v>
       </c>
       <c r="AT42" t="n">
-        <v>266830</v>
+        <v>4658</v>
       </c>
       <c r="AU42" t="n">
-        <v>223173</v>
+        <v>24362</v>
       </c>
       <c r="AV42" t="n">
-        <v>65265</v>
+        <v>15118</v>
       </c>
       <c r="AW42" t="n">
-        <v>11366</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>2005277</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>192193</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>384983</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>255356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>情報サービス</t>
+          <t>医療・福祉</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30318</v>
+        <v>5548</v>
       </c>
       <c r="C43" t="n">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99191</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1860</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>4357</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>13854</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>22559</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30616</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>178130</v>
+        <v>448</v>
       </c>
       <c r="L43" t="n">
-        <v>6017</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>62043</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>26214</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>42630</v>
+        <v>43</v>
       </c>
       <c r="P43" t="n">
-        <v>20050</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>39310</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46360</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>151508</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>26602</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>83268</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>101444</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>6042</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>48700</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>79175</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>25912</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>3657</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>42695</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>15811</v>
+        <v>93</v>
       </c>
       <c r="AD43" t="n">
-        <v>29494</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>50565</v>
+        <v>655</v>
       </c>
       <c r="AF43" t="n">
-        <v>24308</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>46020</v>
+        <v>1248</v>
       </c>
       <c r="AH43" t="n">
-        <v>35129</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>223837</v>
+        <v>2271</v>
       </c>
       <c r="AJ43" t="n">
-        <v>38914</v>
+        <v>5668</v>
       </c>
       <c r="AK43" t="n">
-        <v>211749</v>
+        <v>63661</v>
       </c>
       <c r="AL43" t="n">
-        <v>24573</v>
+        <v>25473</v>
       </c>
       <c r="AM43" t="n">
-        <v>1685178</v>
+        <v>935</v>
       </c>
       <c r="AN43" t="n">
-        <v>1583225</v>
+        <v>3886</v>
       </c>
       <c r="AO43" t="n">
-        <v>214072</v>
+        <v>1309</v>
       </c>
       <c r="AP43" t="n">
-        <v>601804</v>
+        <v>1337</v>
       </c>
       <c r="AQ43" t="n">
-        <v>574593</v>
+        <v>1111512</v>
       </c>
       <c r="AR43" t="n">
-        <v>489224</v>
+        <v>62</v>
       </c>
       <c r="AS43" t="n">
-        <v>801125</v>
+        <v>0</v>
       </c>
       <c r="AT43" t="n">
-        <v>629030</v>
+        <v>215</v>
       </c>
       <c r="AU43" t="n">
-        <v>443924</v>
+        <v>3028</v>
       </c>
       <c r="AV43" t="n">
-        <v>156552</v>
+        <v>3136</v>
       </c>
       <c r="AW43" t="n">
-        <v>113489</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>53148</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>835659</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>240783</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>19883</v>
+        <v>10739</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>その他の情報通信</t>
+          <t>他に分類されない会員制団体</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8390</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>937</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>56191</v>
+        <v>35217</v>
       </c>
       <c r="F44" t="n">
-        <v>1576</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5423</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6426</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>15654</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>10578</v>
+        <v>21765</v>
       </c>
       <c r="K44" t="n">
-        <v>52421</v>
+        <v>39675</v>
       </c>
       <c r="L44" t="n">
-        <v>3798</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>20035</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>6660</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13898</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>6984</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>24322</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>13749</v>
+        <v>23257</v>
       </c>
       <c r="S44" t="n">
-        <v>19636</v>
+        <v>30882</v>
       </c>
       <c r="T44" t="n">
-        <v>13918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>35373</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>13146</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2713</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>12672</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>20576</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>8543</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>2086</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>12656</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>9594</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>15900</v>
+        <v>26698</v>
       </c>
       <c r="AE44" t="n">
-        <v>47971</v>
+        <v>20858</v>
       </c>
       <c r="AF44" t="n">
-        <v>20059</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>24599</v>
+        <v>42245</v>
       </c>
       <c r="AH44" t="n">
-        <v>10855</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>7148</v>
+        <v>55824</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1270</v>
+        <v>139403</v>
       </c>
       <c r="AK44" t="n">
-        <v>10814</v>
+        <v>61170</v>
       </c>
       <c r="AL44" t="n">
-        <v>12545</v>
+        <v>32671</v>
       </c>
       <c r="AM44" t="n">
-        <v>646780</v>
+        <v>20606</v>
       </c>
       <c r="AN44" t="n">
-        <v>297968</v>
+        <v>18059</v>
       </c>
       <c r="AO44" t="n">
-        <v>107086</v>
+        <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1487204</v>
+        <v>97009</v>
       </c>
       <c r="AQ44" t="n">
-        <v>498829</v>
+        <v>66993</v>
       </c>
       <c r="AR44" t="n">
-        <v>1172190</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>230555</v>
+        <v>22076</v>
       </c>
       <c r="AT44" t="n">
-        <v>282070</v>
+        <v>0</v>
       </c>
       <c r="AU44" t="n">
-        <v>206991</v>
+        <v>129712</v>
       </c>
       <c r="AV44" t="n">
-        <v>89659</v>
+        <v>118240</v>
       </c>
       <c r="AW44" t="n">
-        <v>24039</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>1504966</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>845079</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>202547</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>122698</v>
+        <v>22926</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>公務</t>
+          <t>物品賃貸サービス</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>59216</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -7720,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93630</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -7762,16 +7226,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>115292</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>79862</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>67018</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -7789,16 +7253,16 @@
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>78413</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>103383</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>153431</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>78632</v>
       </c>
       <c r="AF45" t="n">
         <v>0</v>
@@ -7810,31 +7274,31 @@
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>1356389</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>380392</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>350933</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>266652</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>209149</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>235004</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>692067</v>
       </c>
       <c r="AP45" t="n">
-        <v>0</v>
+        <v>142712</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0</v>
+        <v>571581</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -7846,198 +7310,174 @@
         <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>0</v>
+        <v>552186</v>
       </c>
       <c r="AV45" t="n">
-        <v>0</v>
+        <v>150662</v>
       </c>
       <c r="AW45" t="n">
         <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>1327291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>教育・研究</t>
+          <t>広告</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>8027</v>
+        <v>445406</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>872</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>5355</v>
+        <v>644245</v>
       </c>
       <c r="L46" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1490</v>
+        <v>65991</v>
       </c>
       <c r="N46" t="n">
-        <v>2034</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1359</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>4431</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5608</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5914</v>
+        <v>47595</v>
       </c>
       <c r="T46" t="n">
-        <v>1634</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>14397</v>
+        <v>56352</v>
       </c>
       <c r="V46" t="n">
-        <v>6732</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>4702</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>3394</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>7004</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>582</v>
+        <v>87620</v>
       </c>
       <c r="AB46" t="n">
-        <v>4407</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>1547</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>4665</v>
+        <v>46493</v>
       </c>
       <c r="AF46" t="n">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>1508</v>
+        <v>46388</v>
       </c>
       <c r="AH46" t="n">
-        <v>1153</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>9638</v>
+        <v>891709</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1138</v>
+        <v>1449098</v>
       </c>
       <c r="AK46" t="n">
-        <v>371</v>
+        <v>143604</v>
       </c>
       <c r="AL46" t="n">
-        <v>674</v>
+        <v>460026</v>
       </c>
       <c r="AM46" t="n">
-        <v>17294</v>
+        <v>338774</v>
       </c>
       <c r="AN46" t="n">
-        <v>6150</v>
+        <v>347912</v>
       </c>
       <c r="AO46" t="n">
-        <v>35037</v>
+        <v>60999</v>
       </c>
       <c r="AP46" t="n">
-        <v>92878</v>
+        <v>150051</v>
       </c>
       <c r="AQ46" t="n">
-        <v>75377</v>
+        <v>97787</v>
       </c>
       <c r="AR46" t="n">
-        <v>36103</v>
+        <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>4776</v>
+        <v>74927</v>
       </c>
       <c r="AT46" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>5269</v>
+        <v>774335</v>
       </c>
       <c r="AV46" t="n">
-        <v>7</v>
+        <v>408934</v>
       </c>
       <c r="AW46" t="n">
-        <v>3508</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>4658</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>24362</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>15118</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>医療・福祉</t>
+          <t>その他の対事業所サービス</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5548</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -8046,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>874958</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -8058,25 +7498,25 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>448</v>
+        <v>482899</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>16</v>
+        <v>491808</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -8094,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>517117</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -8112,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>498471</v>
       </c>
       <c r="AB47" t="n">
         <v>0</v>
@@ -8121,1054 +7561,366 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>22</v>
+        <v>1297499</v>
       </c>
       <c r="AF47" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>27</v>
+        <v>800231</v>
       </c>
       <c r="AH47" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>655</v>
+        <v>7138742</v>
       </c>
       <c r="AJ47" t="n">
-        <v>30</v>
+        <v>5077813</v>
       </c>
       <c r="AK47" t="n">
-        <v>1248</v>
+        <v>2218387</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>2459579</v>
       </c>
       <c r="AM47" t="n">
-        <v>2271</v>
+        <v>4439697</v>
       </c>
       <c r="AN47" t="n">
-        <v>5668</v>
+        <v>1040341</v>
       </c>
       <c r="AO47" t="n">
-        <v>63661</v>
+        <v>3924271</v>
       </c>
       <c r="AP47" t="n">
-        <v>25473</v>
+        <v>3144803</v>
       </c>
       <c r="AQ47" t="n">
-        <v>935</v>
+        <v>2867599</v>
       </c>
       <c r="AR47" t="n">
-        <v>3886</v>
+        <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1309</v>
+        <v>1881090</v>
       </c>
       <c r="AT47" t="n">
-        <v>1337</v>
+        <v>450273</v>
       </c>
       <c r="AU47" t="n">
-        <v>1111512</v>
+        <v>7967384</v>
       </c>
       <c r="AV47" t="n">
-        <v>62</v>
+        <v>1106070</v>
       </c>
       <c r="AW47" t="n">
         <v>0</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>215</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>3028</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>3136</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>10739</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>他に分類されない会員制団体</t>
+          <t>対個人サービス</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>13503</v>
+        <v>2880</v>
       </c>
       <c r="C48" t="n">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1418</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>35217</v>
+        <v>6102</v>
       </c>
       <c r="F48" t="n">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1543</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>5954</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>5768</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>21765</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>39675</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>2689</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>8404</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>6080</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>16135</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>3174</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>10512</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>23257</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>30882</v>
+        <v>2385</v>
       </c>
       <c r="T48" t="n">
-        <v>7407</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>10134</v>
+        <v>2416</v>
       </c>
       <c r="V48" t="n">
-        <v>5449</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>4333</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>4224</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>3991</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>2169</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>4602</v>
+        <v>2436</v>
       </c>
       <c r="AD48" t="n">
-        <v>7259</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>19121</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>26698</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>16743</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>9151</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>20858</v>
+        <v>68711</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17963</v>
+        <v>38602</v>
       </c>
       <c r="AK48" t="n">
-        <v>42245</v>
+        <v>19806</v>
       </c>
       <c r="AL48" t="n">
-        <v>11878</v>
+        <v>57568</v>
       </c>
       <c r="AM48" t="n">
-        <v>55824</v>
+        <v>28684</v>
       </c>
       <c r="AN48" t="n">
-        <v>139403</v>
+        <v>129962</v>
       </c>
       <c r="AO48" t="n">
-        <v>61170</v>
+        <v>17246</v>
       </c>
       <c r="AP48" t="n">
-        <v>32671</v>
+        <v>112588</v>
       </c>
       <c r="AQ48" t="n">
-        <v>20606</v>
+        <v>622181</v>
       </c>
       <c r="AR48" t="n">
-        <v>18059</v>
+        <v>9480</v>
       </c>
       <c r="AS48" t="n">
-        <v>129</v>
+        <v>7861</v>
       </c>
       <c r="AT48" t="n">
-        <v>97009</v>
+        <v>26483</v>
       </c>
       <c r="AU48" t="n">
-        <v>66993</v>
+        <v>50276</v>
       </c>
       <c r="AV48" t="n">
-        <v>0</v>
+        <v>513999</v>
       </c>
       <c r="AW48" t="n">
-        <v>22076</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>15048</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>129712</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>118240</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>22926</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>物品賃貸サービス</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>59216</v>
+        <v>61611</v>
       </c>
       <c r="C49" t="n">
-        <v>5291</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>22850</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>93630</v>
+        <v>238879</v>
       </c>
       <c r="F49" t="n">
-        <v>3968</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>5134</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>23449</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>14341</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>18607</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>28994</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>10889</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>48594</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>37232</v>
+        <v>55574</v>
       </c>
       <c r="O49" t="n">
-        <v>42484</v>
+        <v>81823</v>
       </c>
       <c r="P49" t="n">
-        <v>14376</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>43397</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>49841</v>
+        <v>85888</v>
       </c>
       <c r="S49" t="n">
-        <v>115292</v>
+        <v>111607</v>
       </c>
       <c r="T49" t="n">
-        <v>16530</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>79862</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>67018</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>9201</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>27799</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>10851</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>35429</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>11703</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>47861</v>
+        <v>81461</v>
       </c>
       <c r="AC49" t="n">
-        <v>78413</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>103383</v>
+        <v>216272</v>
       </c>
       <c r="AE49" t="n">
-        <v>571875</v>
+        <v>60558</v>
       </c>
       <c r="AF49" t="n">
-        <v>153431</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>613829</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>501878</v>
+        <v>114518</v>
       </c>
       <c r="AI49" t="n">
-        <v>78632</v>
+        <v>832233</v>
       </c>
       <c r="AJ49" t="n">
-        <v>25525</v>
+        <v>470054</v>
       </c>
       <c r="AK49" t="n">
-        <v>17739</v>
+        <v>457410</v>
       </c>
       <c r="AL49" t="n">
-        <v>42118</v>
+        <v>164664</v>
       </c>
       <c r="AM49" t="n">
-        <v>1356389</v>
+        <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>380392</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>350933</v>
+        <v>178503</v>
       </c>
       <c r="AP49" t="n">
-        <v>266652</v>
+        <v>623406</v>
       </c>
       <c r="AQ49" t="n">
-        <v>209149</v>
+        <v>441558</v>
       </c>
       <c r="AR49" t="n">
-        <v>235004</v>
+        <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>692067</v>
+        <v>70054</v>
       </c>
       <c r="AT49" t="n">
-        <v>142712</v>
+        <v>0</v>
       </c>
       <c r="AU49" t="n">
-        <v>571581</v>
+        <v>283339</v>
       </c>
       <c r="AV49" t="n">
-        <v>30119</v>
+        <v>182209</v>
       </c>
       <c r="AW49" t="n">
-        <v>36787</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>15260</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>552186</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>150662</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>26331</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>広告</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>7566</v>
-      </c>
-      <c r="C50" t="n">
-        <v>220</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1447</v>
-      </c>
-      <c r="E50" t="n">
-        <v>445406</v>
-      </c>
-      <c r="F50" t="n">
-        <v>935</v>
-      </c>
-      <c r="G50" t="n">
-        <v>9725</v>
-      </c>
-      <c r="H50" t="n">
-        <v>12857</v>
-      </c>
-      <c r="I50" t="n">
-        <v>18817</v>
-      </c>
-      <c r="J50" t="n">
-        <v>13356</v>
-      </c>
-      <c r="K50" t="n">
-        <v>644245</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2886</v>
-      </c>
-      <c r="M50" t="n">
-        <v>65991</v>
-      </c>
-      <c r="N50" t="n">
-        <v>9680</v>
-      </c>
-      <c r="O50" t="n">
-        <v>12979</v>
-      </c>
-      <c r="P50" t="n">
-        <v>6123</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>16829</v>
-      </c>
-      <c r="R50" t="n">
-        <v>38553</v>
-      </c>
-      <c r="S50" t="n">
-        <v>47595</v>
-      </c>
-      <c r="T50" t="n">
-        <v>27599</v>
-      </c>
-      <c r="U50" t="n">
-        <v>56352</v>
-      </c>
-      <c r="V50" t="n">
-        <v>29899</v>
-      </c>
-      <c r="W50" t="n">
-        <v>30031</v>
-      </c>
-      <c r="X50" t="n">
-        <v>22772</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>23325</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>107328</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>28725</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>87620</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>13666</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>35647</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>76702</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>5061</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>12350</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>7074</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>46493</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>33093</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>46388</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>6024</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>891709</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1449098</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>143604</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>460026</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>338774</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>347912</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>60999</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>150051</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>97787</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>21505</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>74927</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>4659</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>774335</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>408934</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>21829</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>その他の対事業所サービス</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>299447</v>
-      </c>
-      <c r="C51" t="n">
-        <v>9370</v>
-      </c>
-      <c r="D51" t="n">
-        <v>48343</v>
-      </c>
-      <c r="E51" t="n">
-        <v>874958</v>
-      </c>
-      <c r="F51" t="n">
-        <v>23230</v>
-      </c>
-      <c r="G51" t="n">
-        <v>68502</v>
-      </c>
-      <c r="H51" t="n">
-        <v>111732</v>
-      </c>
-      <c r="I51" t="n">
-        <v>111139</v>
-      </c>
-      <c r="J51" t="n">
-        <v>247863</v>
-      </c>
-      <c r="K51" t="n">
-        <v>482899</v>
-      </c>
-      <c r="L51" t="n">
-        <v>71933</v>
-      </c>
-      <c r="M51" t="n">
-        <v>491808</v>
-      </c>
-      <c r="N51" t="n">
-        <v>336274</v>
-      </c>
-      <c r="O51" t="n">
-        <v>232508</v>
-      </c>
-      <c r="P51" t="n">
-        <v>121382</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>364749</v>
-      </c>
-      <c r="R51" t="n">
-        <v>377080</v>
-      </c>
-      <c r="S51" t="n">
-        <v>449361</v>
-      </c>
-      <c r="T51" t="n">
-        <v>184887</v>
-      </c>
-      <c r="U51" t="n">
-        <v>517117</v>
-      </c>
-      <c r="V51" t="n">
-        <v>258231</v>
-      </c>
-      <c r="W51" t="n">
-        <v>61819</v>
-      </c>
-      <c r="X51" t="n">
-        <v>144542</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>163389</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>210904</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>79312</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>498471</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>179593</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>266193</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>2119660</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>436622</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2196786</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>360177</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>1297499</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>125753</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>800231</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>390870</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>7138742</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>5077813</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>2218387</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>2459579</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>4439697</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>1040341</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>3924271</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>3144803</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>2867599</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>335563</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>1881090</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>450273</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>7967384</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>1106070</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>170889</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>対個人サービス</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2880</v>
-      </c>
-      <c r="C52" t="n">
-        <v>24</v>
-      </c>
-      <c r="D52" t="n">
-        <v>127</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6102</v>
-      </c>
-      <c r="F52" t="n">
-        <v>160</v>
-      </c>
-      <c r="G52" t="n">
-        <v>376</v>
-      </c>
-      <c r="H52" t="n">
-        <v>421</v>
-      </c>
-      <c r="I52" t="n">
-        <v>708</v>
-      </c>
-      <c r="J52" t="n">
-        <v>818</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1954</v>
-      </c>
-      <c r="L52" t="n">
-        <v>268</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1401</v>
-      </c>
-      <c r="N52" t="n">
-        <v>465</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1445</v>
-      </c>
-      <c r="P52" t="n">
-        <v>821</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1175</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1254</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2385</v>
-      </c>
-      <c r="T52" t="n">
-        <v>704</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2416</v>
-      </c>
-      <c r="V52" t="n">
-        <v>831</v>
-      </c>
-      <c r="W52" t="n">
-        <v>435</v>
-      </c>
-      <c r="X52" t="n">
-        <v>696</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>676</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1230</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>288</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>2329</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>1209</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>2436</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>4512</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1336</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>5378</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>2508</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>1622</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>233</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>1258</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>297</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>68711</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>38602</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>19806</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>57568</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>28684</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>129962</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>17246</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>112588</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>622181</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>9480</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>7861</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>26483</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>50276</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>513999</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>5807</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>その他</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>61611</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1716</v>
-      </c>
-      <c r="D53" t="n">
-        <v>8521</v>
-      </c>
-      <c r="E53" t="n">
-        <v>238879</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3221</v>
-      </c>
-      <c r="G53" t="n">
-        <v>8191</v>
-      </c>
-      <c r="H53" t="n">
-        <v>23057</v>
-      </c>
-      <c r="I53" t="n">
-        <v>19356</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9257</v>
-      </c>
-      <c r="K53" t="n">
-        <v>49108</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5679</v>
-      </c>
-      <c r="M53" t="n">
-        <v>32793</v>
-      </c>
-      <c r="N53" t="n">
-        <v>55574</v>
-      </c>
-      <c r="O53" t="n">
-        <v>81823</v>
-      </c>
-      <c r="P53" t="n">
-        <v>41060</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>47245</v>
-      </c>
-      <c r="R53" t="n">
-        <v>85888</v>
-      </c>
-      <c r="S53" t="n">
-        <v>111607</v>
-      </c>
-      <c r="T53" t="n">
-        <v>19940</v>
-      </c>
-      <c r="U53" t="n">
-        <v>19544</v>
-      </c>
-      <c r="V53" t="n">
-        <v>27716</v>
-      </c>
-      <c r="W53" t="n">
-        <v>4873</v>
-      </c>
-      <c r="X53" t="n">
-        <v>18878</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>11142</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>7230</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>3515</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>17224</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>81461</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>26099</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>492826</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>216272</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>113683</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>78442</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>60558</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>8826</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>53602</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>114518</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>832233</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>470054</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>457410</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>164664</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>31250</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>43481</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>178503</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>623406</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>441558</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>43244</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>70054</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>8821</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>283339</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>182209</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>1774</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
